--- a/Lecture/Cybersecurity_for_national_Defense_23_2/점수.xlsx
+++ b/Lecture/Cybersecurity_for_national_Defense_23_2/점수.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="24">
   <si>
     <t>이대연</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -66,6 +66,50 @@
   </si>
   <si>
     <t>목 34</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>송현조</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김경민</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>백예진</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김형준</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이지원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김재원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문동욱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최우석</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김선혁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>박수민</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이준호</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -498,10 +542,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N8"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -529,6 +573,12 @@
       <c r="N1" s="2"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
       <c r="M2" t="s">
         <v>1</v>
       </c>
@@ -537,6 +587,12 @@
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
       <c r="M3" t="s">
         <v>2</v>
       </c>
@@ -545,6 +601,12 @@
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
       <c r="M4" t="s">
         <v>3</v>
       </c>
@@ -553,6 +615,12 @@
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
       <c r="M5" t="s">
         <v>4</v>
       </c>
@@ -561,6 +629,12 @@
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
       <c r="M6" t="s">
         <v>5</v>
       </c>
@@ -569,6 +643,12 @@
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
       <c r="M7" t="s">
         <v>6</v>
       </c>
@@ -577,10 +657,48 @@
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
       <c r="M8" t="s">
         <v>7</v>
       </c>
       <c r="N8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12">
         <v>1</v>
       </c>
     </row>

--- a/Lecture/Cybersecurity_for_national_Defense_23_2/점수.xlsx
+++ b/Lecture/Cybersecurity_for_national_Defense_23_2/점수.xlsx
@@ -10,12 +10,12 @@
     <sheet name="감점" sheetId="1" r:id="rId1"/>
     <sheet name="점수" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="43">
   <si>
     <t>이대연</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -110,6 +110,81 @@
   </si>
   <si>
     <t>이준호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>황해석</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>성대일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김승주</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>홍승재</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>황세진</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최혁진</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김한결</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공진표</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유민재</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>양현모</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>남정현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김수지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>길우종</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다음시간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유정현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이상민</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>총</t>
+  </si>
+  <si>
+    <t>총</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>총</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -542,10 +617,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N12"/>
+  <dimension ref="A1:N13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -574,27 +649,62 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <f>SUM(B3:B20)</f>
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2">
+        <f>SUM(E3:E20)</f>
+        <v>9</v>
+      </c>
+      <c r="G2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H2">
+        <f>SUM(H3:H20)</f>
+        <v>12</v>
+      </c>
+      <c r="J2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K2">
+        <f>SUM(K3:K20)</f>
+        <v>0</v>
       </c>
       <c r="M2" t="s">
-        <v>1</v>
+        <v>41</v>
       </c>
       <c r="N2">
-        <v>3</v>
+        <f>SUM(N3:N20)</f>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B3">
         <v>2</v>
       </c>
+      <c r="D3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3">
+        <v>4</v>
+      </c>
+      <c r="G3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3">
+        <v>4</v>
+      </c>
       <c r="M3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N3">
         <v>3</v>
@@ -602,13 +712,25 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="D4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="G4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4">
+        <v>2</v>
       </c>
       <c r="M4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N4">
         <v>3</v>
@@ -616,27 +738,51 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
+      <c r="D5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="G5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
       <c r="M5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N5">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
+      <c r="D6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="G6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
       <c r="M6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -644,13 +790,25 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
+      <c r="D7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="G7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
       <c r="M7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -658,13 +816,19 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
+      <c r="G8" t="s">
+        <v>34</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
       <c r="M8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -672,38 +836,77 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="G9" t="s">
+        <v>35</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="M9" t="s">
+        <v>7</v>
+      </c>
+      <c r="N9">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B10">
         <v>1</v>
+      </c>
+      <c r="G10" t="s">
+        <v>36</v>
+      </c>
+      <c r="H10" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11">
         <v>1</v>
+      </c>
+      <c r="G11" t="s">
+        <v>38</v>
+      </c>
+      <c r="H11" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="G12" t="s">
+        <v>39</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>23</v>
       </c>
-      <c r="B12">
+      <c r="B13">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Lecture/Cybersecurity_for_national_Defense_23_2/점수.xlsx
+++ b/Lecture/Cybersecurity_for_national_Defense_23_2/점수.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="69">
   <si>
     <t>이대연</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -185,6 +185,110 @@
   </si>
   <si>
     <t>총</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모하멧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>백지수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>박민규</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강민규</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>함성수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구창모</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강현승</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한유진</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김다현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>박민우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다음에</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신진혁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김진현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정연호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>민경준</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>황서진</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>박성호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최혁준</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>윤의석</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최수창</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김태헌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오준희</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>노호진</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이대연</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -570,10 +674,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView topLeftCell="K1" zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -601,11 +705,25 @@
       <c r="N1" s="1"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="J2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
       <c r="M2" t="s">
         <v>0</v>
       </c>
       <c r="N2">
         <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="J3" t="s">
+        <v>44</v>
+      </c>
+      <c r="K3" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -617,15 +735,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N13"/>
+  <dimension ref="A1:O18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>8</v>
       </c>
@@ -647,7 +765,7 @@
       </c>
       <c r="N1" s="2"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>42</v>
       </c>
@@ -674,17 +792,17 @@
       </c>
       <c r="K2">
         <f>SUM(K3:K20)</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="M2" t="s">
         <v>41</v>
       </c>
       <c r="N2">
         <f>SUM(N3:N20)</f>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -703,14 +821,23 @@
       <c r="H3">
         <v>4</v>
       </c>
+      <c r="J3" t="s">
+        <v>46</v>
+      </c>
+      <c r="K3">
+        <v>4</v>
+      </c>
       <c r="M3" t="s">
         <v>1</v>
       </c>
       <c r="N3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+      <c r="O3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -729,14 +856,23 @@
       <c r="H4">
         <v>2</v>
       </c>
+      <c r="J4" t="s">
+        <v>47</v>
+      </c>
+      <c r="K4">
+        <v>2</v>
+      </c>
       <c r="M4" t="s">
         <v>2</v>
       </c>
       <c r="N4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+      <c r="O4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -755,14 +891,20 @@
       <c r="H5">
         <v>1</v>
       </c>
+      <c r="J5" t="s">
+        <v>48</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
       <c r="M5" t="s">
         <v>3</v>
       </c>
       <c r="N5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -781,14 +923,20 @@
       <c r="H6">
         <v>1</v>
       </c>
+      <c r="J6" t="s">
+        <v>49</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
       <c r="M6" t="s">
         <v>4</v>
       </c>
       <c r="N6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -807,6 +955,12 @@
       <c r="H7">
         <v>1</v>
       </c>
+      <c r="J7" t="s">
+        <v>50</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
       <c r="M7" t="s">
         <v>5</v>
       </c>
@@ -814,7 +968,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -827,14 +981,20 @@
       <c r="H8">
         <v>1</v>
       </c>
+      <c r="J8" t="s">
+        <v>51</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
       <c r="M8" t="s">
         <v>6</v>
       </c>
       <c r="N8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -847,14 +1007,20 @@
       <c r="H9">
         <v>1</v>
       </c>
+      <c r="J9" t="s">
+        <v>52</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
       <c r="M9" t="s">
         <v>7</v>
       </c>
       <c r="N9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -867,8 +1033,20 @@
       <c r="H10" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="J10" t="s">
+        <v>53</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="M10" t="s">
+        <v>60</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -881,8 +1059,20 @@
       <c r="H11" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="J11" t="s">
+        <v>43</v>
+      </c>
+      <c r="K11" t="s">
+        <v>54</v>
+      </c>
+      <c r="M11" t="s">
+        <v>61</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -895,13 +1085,89 @@
       <c r="H12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="J12" t="s">
+        <v>55</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="M12" t="s">
+        <v>62</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>23</v>
       </c>
       <c r="B13">
         <v>1</v>
+      </c>
+      <c r="J13" t="s">
+        <v>56</v>
+      </c>
+      <c r="K13" t="s">
+        <v>54</v>
+      </c>
+      <c r="M13" t="s">
+        <v>63</v>
+      </c>
+      <c r="N13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="J14" t="s">
+        <v>57</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="M14" t="s">
+        <v>64</v>
+      </c>
+      <c r="N14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="J15" t="s">
+        <v>58</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="M15" t="s">
+        <v>65</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="M16" t="s">
+        <v>66</v>
+      </c>
+      <c r="N16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="13:14" x14ac:dyDescent="0.3">
+      <c r="M17" t="s">
+        <v>67</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="13:14" x14ac:dyDescent="0.3">
+      <c r="M18" t="s">
+        <v>68</v>
+      </c>
+      <c r="N18" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/Lecture/Cybersecurity_for_national_Defense_23_2/점수.xlsx
+++ b/Lecture/Cybersecurity_for_national_Defense_23_2/점수.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="78">
   <si>
     <t>이대연</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -69,11 +69,166 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>최혁진</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김한결</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공진표</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유민재</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>양현모</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>남정현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김수지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이상민</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>총</t>
+  </si>
+  <si>
+    <t>총</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모하멧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>백지수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>박민규</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강민규</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>함성수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구창모</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강현승</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한유진</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김다현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>박민우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신진혁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정연호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>민경준</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>황서진</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>박성호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최혁준</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>윤의석</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최수창</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김태헌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오준희</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>노호진</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>윤현빈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화 34</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화 78</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>총</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김경민</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자퇴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>황해석</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>송현조</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>김경민</t>
+    <t>성대일</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -85,10 +240,18 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>홍승재</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>이지원</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>황세진</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>김재원</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -97,6 +260,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>휴학</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>최우석</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -113,11 +280,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>황해석</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>성대일</t>
+    <t>지승우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장성문</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주현성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이서진</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정재우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이재혁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정윤성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이재현</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -125,39 +316,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>홍승재</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>황세진</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>최혁진</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>김한결</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공진표</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>유민재</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>양현모</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>남정현</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>김수지</t>
+    <t>김성주</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -165,130 +324,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>다음시간</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>유정현</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이상민</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>총</t>
-  </si>
-  <si>
-    <t>총</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>총</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>모하멧</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>백지수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>경고</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>박민규</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>강민규</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>함성수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>구창모</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>강현승</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>한유진</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>김다현</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>박민우</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>다음에</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>신진혁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>김진현</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>정연호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>민경준</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>황서진</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>박성호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>최혁준</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>윤의석</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>최수창</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>김태헌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>오준희</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>노호진</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이대연</t>
+    <t>###</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -706,7 +742,7 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="J2" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -720,10 +756,10 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="J3" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="K3" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -735,21 +771,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O18"/>
+  <dimension ref="A1:N19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="B1" s="2"/>
       <c r="D1" s="2" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="E1" s="2"/>
       <c r="G1" s="2" t="s">
@@ -765,250 +801,265 @@
       </c>
       <c r="N1" s="2"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="B2">
         <f>SUM(B3:B20)</f>
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="D2" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="E2">
         <f>SUM(E3:E20)</f>
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="G2" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="H2">
         <f>SUM(H3:H20)</f>
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="K2">
         <f>SUM(K3:K20)</f>
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="M2" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="N2">
         <f>SUM(N3:N20)</f>
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="B3">
         <v>2</v>
       </c>
+      <c r="C3" t="s">
+        <v>50</v>
+      </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="E3">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="G3" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="H3">
-        <v>4</v>
+        <v>11</v>
+      </c>
+      <c r="I3" t="s">
+        <v>77</v>
       </c>
       <c r="J3" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="K3">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="M3" t="s">
         <v>1</v>
       </c>
       <c r="N3">
-        <v>5</v>
-      </c>
-      <c r="O3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="G4" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="J4" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M4" t="s">
         <v>2</v>
       </c>
       <c r="N4">
-        <v>7</v>
-      </c>
-      <c r="O4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="D5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E5">
+        <v>8</v>
+      </c>
+      <c r="G5" t="s">
         <v>15</v>
       </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="G5" t="s">
-        <v>31</v>
-      </c>
       <c r="H5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J5" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M5" t="s">
         <v>3</v>
       </c>
       <c r="N5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B6">
+        <v>7</v>
+      </c>
+      <c r="D6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E6">
+        <v>7</v>
+      </c>
+      <c r="G6" t="s">
         <v>16</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="D6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="G6" t="s">
-        <v>32</v>
       </c>
       <c r="H6">
         <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M6" t="s">
         <v>4</v>
       </c>
       <c r="N6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="D7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E7">
+        <v>4</v>
+      </c>
+      <c r="G7" t="s">
         <v>17</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="D7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="G7" t="s">
-        <v>33</v>
       </c>
       <c r="H7">
         <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M7" t="s">
         <v>5</v>
       </c>
       <c r="N7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B8">
+        <v>6</v>
+      </c>
+      <c r="D8" t="s">
+        <v>69</v>
+      </c>
+      <c r="E8">
+        <v>7</v>
+      </c>
+      <c r="G8" t="s">
         <v>18</v>
       </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="G8" t="s">
-        <v>34</v>
-      </c>
       <c r="H8">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J8" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="M8" t="s">
         <v>6</v>
       </c>
       <c r="N8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>60</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
+      <c r="C9" t="s">
+        <v>61</v>
+      </c>
+      <c r="D9" t="s">
+        <v>70</v>
+      </c>
+      <c r="E9">
+        <v>5</v>
+      </c>
       <c r="G9" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="H9">
         <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -1017,157 +1068,183 @@
         <v>7</v>
       </c>
       <c r="N9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>62</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="D10" t="s">
+        <v>71</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
       </c>
       <c r="G10" t="s">
-        <v>36</v>
-      </c>
-      <c r="H10" t="s">
+        <v>73</v>
+      </c>
+      <c r="H10">
+        <v>6</v>
+      </c>
+      <c r="J10" t="s">
+        <v>33</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="M10" t="s">
         <v>37</v>
       </c>
-      <c r="J10" t="s">
-        <v>53</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="M10" t="s">
-        <v>60</v>
-      </c>
       <c r="N10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>63</v>
       </c>
       <c r="B11">
         <v>1</v>
       </c>
+      <c r="D11" t="s">
+        <v>72</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
       <c r="G11" t="s">
+        <v>20</v>
+      </c>
+      <c r="H11">
+        <v>6</v>
+      </c>
+      <c r="M11" t="s">
         <v>38</v>
       </c>
-      <c r="H11" t="s">
-        <v>37</v>
-      </c>
-      <c r="J11" t="s">
-        <v>43</v>
-      </c>
-      <c r="K11" t="s">
-        <v>54</v>
-      </c>
-      <c r="M11" t="s">
-        <v>61</v>
-      </c>
       <c r="N11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>64</v>
       </c>
       <c r="B12">
         <v>1</v>
       </c>
+      <c r="D12" t="s">
+        <v>75</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
       <c r="G12" t="s">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J12" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="K12">
         <v>1</v>
       </c>
       <c r="M12" t="s">
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="N12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>65</v>
       </c>
       <c r="B13">
-        <v>1</v>
-      </c>
-      <c r="J13" t="s">
-        <v>56</v>
-      </c>
-      <c r="K13" t="s">
-        <v>54</v>
+        <v>5</v>
       </c>
       <c r="M13" t="s">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="N13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>66</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
       <c r="J14" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="K14">
         <v>1</v>
       </c>
       <c r="M14" t="s">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="N14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>67</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
       <c r="J15" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M15" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="N15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="M16" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="N16">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="13:14" x14ac:dyDescent="0.3">
       <c r="M17" t="s">
-        <v>67</v>
+        <v>44</v>
       </c>
       <c r="N17">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="13:14" x14ac:dyDescent="0.3">
       <c r="M18" t="s">
         <v>68</v>
       </c>
-      <c r="N18" t="s">
-        <v>54</v>
+      <c r="N18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="13:14" x14ac:dyDescent="0.3">
+      <c r="M19" t="s">
+        <v>45</v>
+      </c>
+      <c r="N19">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/Lecture/Cybersecurity_for_national_Defense_23_2/점수.xlsx
+++ b/Lecture/Cybersecurity_for_national_Defense_23_2/점수.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="82">
   <si>
     <t>이대연</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -325,6 +325,22 @@
   </si>
   <si>
     <t>###</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유정현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>##</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김영민</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -771,15 +787,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N19"/>
+  <dimension ref="A1:O19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>46</v>
       </c>
@@ -801,49 +817,64 @@
       </c>
       <c r="N1" s="2"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>48</v>
       </c>
       <c r="B2">
         <f>SUM(B3:B20)</f>
-        <v>40</v>
+        <v>86</v>
+      </c>
+      <c r="C2">
+        <v>11</v>
       </c>
       <c r="D2" t="s">
         <v>21</v>
       </c>
       <c r="E2">
         <f>SUM(E3:E20)</f>
-        <v>55</v>
+        <v>89</v>
+      </c>
+      <c r="F2">
+        <v>10</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2">
         <f>SUM(H3:H20)</f>
-        <v>49</v>
+        <v>108</v>
+      </c>
+      <c r="I2">
+        <v>11</v>
       </c>
       <c r="J2" t="s">
         <v>21</v>
       </c>
       <c r="K2">
         <f>SUM(K3:K20)</f>
-        <v>31</v>
+        <v>54</v>
+      </c>
+      <c r="L2">
+        <v>15</v>
       </c>
       <c r="M2" t="s">
         <v>22</v>
       </c>
       <c r="N2">
         <f>SUM(N3:N20)</f>
-        <v>53</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+        <v>118</v>
+      </c>
+      <c r="O2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>49</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C3" t="s">
         <v>50</v>
@@ -852,13 +883,13 @@
         <v>51</v>
       </c>
       <c r="E3">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G3" t="s">
         <v>13</v>
       </c>
       <c r="H3">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="I3" t="s">
         <v>77</v>
@@ -867,65 +898,71 @@
         <v>26</v>
       </c>
       <c r="K3">
-        <v>7</v>
+        <v>15</v>
+      </c>
+      <c r="L3" t="s">
+        <v>79</v>
       </c>
       <c r="M3" t="s">
         <v>1</v>
       </c>
       <c r="N3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>52</v>
       </c>
       <c r="B4">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="D4" t="s">
         <v>53</v>
       </c>
       <c r="E4">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G4" t="s">
         <v>14</v>
       </c>
       <c r="H4">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="J4" t="s">
         <v>27</v>
       </c>
       <c r="K4">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="M4" t="s">
         <v>2</v>
       </c>
       <c r="N4">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+      <c r="O4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>54</v>
       </c>
       <c r="B5">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D5" t="s">
         <v>74</v>
       </c>
       <c r="E5">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G5" t="s">
         <v>15</v>
       </c>
       <c r="H5">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="J5" t="s">
         <v>28</v>
@@ -937,59 +974,59 @@
         <v>3</v>
       </c>
       <c r="N5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>55</v>
       </c>
       <c r="B6">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
         <v>56</v>
       </c>
       <c r="E6">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G6" t="s">
         <v>16</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="J6" t="s">
         <v>29</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M6" t="s">
         <v>4</v>
       </c>
       <c r="N6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>57</v>
       </c>
       <c r="B7">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="D7" t="s">
         <v>58</v>
       </c>
       <c r="E7">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G7" t="s">
         <v>17</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J7" t="s">
         <v>30</v>
@@ -1001,47 +1038,47 @@
         <v>5</v>
       </c>
       <c r="N7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>59</v>
       </c>
       <c r="B8">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D8" t="s">
         <v>69</v>
       </c>
       <c r="E8">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G8" t="s">
         <v>18</v>
       </c>
       <c r="H8">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="J8" t="s">
         <v>31</v>
       </c>
       <c r="K8">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="M8" t="s">
         <v>6</v>
       </c>
       <c r="N8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>60</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" t="s">
         <v>61</v>
@@ -1050,7 +1087,7 @@
         <v>70</v>
       </c>
       <c r="E9">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G9" t="s">
         <v>19</v>
@@ -1068,15 +1105,15 @@
         <v>7</v>
       </c>
       <c r="N9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>62</v>
       </c>
       <c r="B10">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D10" t="s">
         <v>71</v>
@@ -1088,65 +1125,71 @@
         <v>73</v>
       </c>
       <c r="H10">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="J10" t="s">
         <v>33</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M10" t="s">
         <v>37</v>
       </c>
       <c r="N10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>63</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D11" t="s">
         <v>72</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G11" t="s">
         <v>20</v>
       </c>
       <c r="H11">
-        <v>6</v>
+        <v>11</v>
+      </c>
+      <c r="J11" t="s">
+        <v>35</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
       </c>
       <c r="M11" t="s">
         <v>38</v>
       </c>
       <c r="N11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>64</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D12" t="s">
         <v>75</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G12" t="s">
         <v>76</v>
       </c>
       <c r="H12">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="J12" t="s">
         <v>34</v>
@@ -1158,69 +1201,75 @@
         <v>39</v>
       </c>
       <c r="N12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>65</v>
       </c>
       <c r="B13">
-        <v>5</v>
+        <v>11</v>
+      </c>
+      <c r="D13" t="s">
+        <v>81</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="G13" t="s">
+        <v>78</v>
+      </c>
+      <c r="H13">
+        <v>6</v>
+      </c>
+      <c r="J13" t="s">
+        <v>36</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
       </c>
       <c r="M13" t="s">
         <v>40</v>
       </c>
       <c r="N13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>66</v>
       </c>
       <c r="B14">
-        <v>0</v>
-      </c>
-      <c r="J14" t="s">
-        <v>35</v>
-      </c>
-      <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M14" t="s">
         <v>41</v>
       </c>
       <c r="N14">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>67</v>
       </c>
       <c r="B15">
-        <v>0</v>
-      </c>
-      <c r="J15" t="s">
-        <v>36</v>
-      </c>
-      <c r="K15">
         <v>2</v>
       </c>
       <c r="M15" t="s">
         <v>42</v>
       </c>
       <c r="N15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="M16" t="s">
         <v>43</v>
       </c>
       <c r="N16">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="13:14" x14ac:dyDescent="0.3">
@@ -1228,7 +1277,7 @@
         <v>44</v>
       </c>
       <c r="N17">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="13:14" x14ac:dyDescent="0.3">
@@ -1236,7 +1285,7 @@
         <v>68</v>
       </c>
       <c r="N18">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="13:14" x14ac:dyDescent="0.3">
@@ -1244,7 +1293,7 @@
         <v>45</v>
       </c>
       <c r="N19">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
